--- a/TestRun/Mitarbeiter.xlsx
+++ b/TestRun/Mitarbeiter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\CovidBulkBavaria\TestRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A56A27D-DAC2-47CF-B4CD-AFC44C5FD247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94549C-5514-45DC-B56C-AF416415FFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E6F5B6AA-BBA1-4225-99F1-6FBB0D36E666}"/>
   </bookViews>
@@ -110,64 +110,64 @@
     <t>Lore-Kullmer 13</t>
   </si>
   <si>
-    <t>dsfhgfh</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>sdgfh</t>
-  </si>
-  <si>
-    <t>dsgfh</t>
-  </si>
-  <si>
-    <t>dsgfhsdfgh</t>
-  </si>
-  <si>
-    <t>dsgxb</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>xcgvb</t>
-  </si>
-  <si>
-    <t>xcv</t>
-  </si>
-  <si>
-    <t>fdg</t>
-  </si>
-  <si>
-    <t>sdsfgd</t>
-  </si>
-  <si>
-    <t>bds</t>
-  </si>
-  <si>
-    <t>fyvbv</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>bvc</t>
-  </si>
-  <si>
-    <t>fb</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>cxybv</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>+491512333654</t>
+  </si>
+  <si>
+    <t>Skywalker</t>
+  </si>
+  <si>
+    <t>Anakin</t>
+  </si>
+  <si>
+    <t>Palpatine</t>
+  </si>
+  <si>
+    <t>Sheev</t>
+  </si>
+  <si>
+    <t>Clone</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Ricks</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Asimov</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Marget</t>
+  </si>
+  <si>
+    <t>Feuerstein</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Kluftinger</t>
+  </si>
+  <si>
+    <t>Komissar</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +580,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -604,15 +604,15 @@
         <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -633,15 +633,15 @@
         <v>14</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -662,18 +662,18 @@
         <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>35779</v>
@@ -691,18 +691,18 @@
         <v>14</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>35780</v>
@@ -720,15 +720,15 @@
         <v>14</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -749,15 +749,15 @@
         <v>14</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -778,15 +778,15 @@
         <v>14</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -807,15 +807,15 @@
         <v>14</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -836,15 +836,15 @@
         <v>14</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -865,15 +865,15 @@
         <v>14</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -894,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/TestRun/Mitarbeiter.xlsx
+++ b/TestRun/Mitarbeiter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\CovidBulkBavaria\TestRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94549C-5514-45DC-B56C-AF416415FFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1F8C6C-F36F-4965-ADCD-7D1DC2024D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E6F5B6AA-BBA1-4225-99F1-6FBB0D36E666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21924" windowHeight="13176" xr2:uid="{E6F5B6AA-BBA1-4225-99F1-6FBB0D36E666}"/>
   </bookViews>
   <sheets>
     <sheet name="Personen" sheetId="1" r:id="rId1"/>
@@ -541,15 +541,15 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -578,24 +578,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>35776</v>
+        <v>35777</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>95326</v>
+        <v>95327</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -607,24 +607,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>35777</v>
+        <v>35778</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>95327</v>
+        <v>95328</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -636,24 +636,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
-        <v>35778</v>
+        <v>35779</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>95328</v>
+        <v>95329</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -665,24 +665,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>35779</v>
+        <v>35780</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>95329</v>
+        <v>95330</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -694,24 +694,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>35780</v>
+        <v>35781</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>95330</v>
+        <v>95331</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -723,9 +723,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -734,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>35781</v>
+        <v>35782</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>95331</v>
+        <v>95332</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -752,24 +752,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>35782</v>
+        <v>35783</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>95332</v>
+        <v>95333</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -781,24 +781,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>35783</v>
+        <v>35784</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>95333</v>
+        <v>95334</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -810,24 +810,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>35784</v>
+        <v>35785</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>95334</v>
+        <v>95335</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -839,24 +839,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>35785</v>
+        <v>35786</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>95335</v>
+        <v>95336</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -868,24 +868,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>35786</v>
+        <v>35776</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>95336</v>
+        <v>95326</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -900,17 +900,17 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{C3964370-E0F5-4A9A-8393-8E358FCF4E70}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{4C57F944-5E5C-4F02-BF8C-D72BA3D645A2}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{84447B08-824D-4503-A4C9-DD4F6225F231}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{316F4C17-68DC-435A-A565-3288EF1B17C5}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{6E88C70E-C411-4782-8C99-1D2DFCA7A7DB}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{11DCAAE1-5F48-43A9-9852-330F831DB892}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{EF421570-A5FE-4378-8829-5B08F8900B38}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{6A290452-EE15-4826-BFB9-042FA91CC249}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{80C4759B-7AC7-4C6C-AB5A-AE9052CD5C74}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{8B551B12-F2B6-467F-AB3A-DD83A67A2F9F}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{EA6D253B-045B-4C3A-9815-27822D25C3D8}"/>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{C3964370-E0F5-4A9A-8393-8E358FCF4E70}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{4C57F944-5E5C-4F02-BF8C-D72BA3D645A2}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{84447B08-824D-4503-A4C9-DD4F6225F231}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{316F4C17-68DC-435A-A565-3288EF1B17C5}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{6E88C70E-C411-4782-8C99-1D2DFCA7A7DB}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{11DCAAE1-5F48-43A9-9852-330F831DB892}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{EF421570-A5FE-4378-8829-5B08F8900B38}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{6A290452-EE15-4826-BFB9-042FA91CC249}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{80C4759B-7AC7-4C6C-AB5A-AE9052CD5C74}"/>
+    <hyperlink ref="H10" r:id="rId10" xr:uid="{8B551B12-F2B6-467F-AB3A-DD83A67A2F9F}"/>
+    <hyperlink ref="H11" r:id="rId11" xr:uid="{EA6D253B-045B-4C3A-9815-27822D25C3D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>

--- a/TestRun/Mitarbeiter.xlsx
+++ b/TestRun/Mitarbeiter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\CovidBulkBavaria\TestRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1F8C6C-F36F-4965-ADCD-7D1DC2024D1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3430E977-7D4D-49D6-83EE-76B6E23B38BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21924" windowHeight="13176" xr2:uid="{E6F5B6AA-BBA1-4225-99F1-6FBB0D36E666}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>Vorname</t>
   </si>
@@ -168,6 +168,24 @@
   </si>
   <si>
     <t>Komissar</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Ersttestung</t>
+  </si>
+  <si>
+    <t>Symptome</t>
+  </si>
+  <si>
+    <t>Übermittelung an GSA</t>
   </si>
 </sst>
 </file>
@@ -538,18 +556,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC85D635-82D9-45C0-8408-F078E573257E}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -577,8 +599,20 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -589,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>35777</v>
+        <v>33219</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -606,8 +640,20 @@
       <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -635,8 +681,20 @@
       <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -664,8 +722,20 @@
       <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -693,8 +763,20 @@
       <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -722,8 +804,20 @@
       <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -751,8 +845,20 @@
       <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -780,8 +886,20 @@
       <c r="I8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -809,8 +927,20 @@
       <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -838,8 +968,20 @@
       <c r="I10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -867,8 +1009,20 @@
       <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -895,6 +1049,18 @@
       </c>
       <c r="I12" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
